--- a/DControl/media/TABLES/Example1.xlsx
+++ b/DControl/media/TABLES/Example1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1285F6D6-277F-429E-A9C9-8511DD5EBC77}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F39C49-223B-43B5-AD91-A55C3851E638}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>Наименование детали</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>тестовый заказ</t>
+  </si>
+  <si>
+    <t>Толщина или диаметр проката, мм</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -294,9 +297,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,6 +323,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,22 +625,23 @@
     <col min="2" max="2" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="22.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -639,7 +649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -647,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -655,569 +665,616 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="19">
+        <v>30</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="19">
+        <v>50</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>2</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="19">
+        <v>30</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>4</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="19">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
